--- a/BOM some cg calculation scenario - preliminary requirement for weight accounting database.xlsx
+++ b/BOM some cg calculation scenario - preliminary requirement for weight accounting database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74fa2a0f314604bb/7jtfCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B73751-D069-4126-8478-8CF77432F7F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{87B73751-D069-4126-8478-8CF77432F7F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CFB897BB-7E5D-4898-B3AC-DC14DB8030B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="3" xr2:uid="{41E4C366-794D-41B4-BD70-006AF0BA3188}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{41E4C366-794D-41B4-BD70-006AF0BA3188}"/>
   </bookViews>
   <sheets>
     <sheet name="Assy A" sheetId="9" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="77">
   <si>
     <t>Part Number</t>
   </si>
@@ -854,18 +854,12 @@
     <t>Items not covered by a Cad System</t>
   </si>
   <si>
-    <t>Desription</t>
-  </si>
-  <si>
     <t>Type of Part</t>
   </si>
   <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>Unti Weight</t>
-  </si>
-  <si>
     <t>Total Weight</t>
   </si>
   <si>
@@ -917,9 +911,6 @@
     <t>Plate</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Chemical Finish spec2</t>
   </si>
   <si>
@@ -930,9 +921,6 @@
   </si>
   <si>
     <t>type of Part</t>
-  </si>
-  <si>
-    <t>Field used to propelly calculated the CG depending of values in X,Y Z arms.</t>
   </si>
   <si>
     <t>Hardware B</t>
@@ -992,6 +980,12 @@
   <si>
     <t>Assy With missing CG on  all hardware
 and Detail.</t>
+  </si>
+  <si>
+    <t>Field used to properly calculated the CG depending of values in X,Y Z arms.</t>
+  </si>
+  <si>
+    <t>Unit Weight</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1052,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,6 +1068,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,14 +1101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1125,6 +1122,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,9 +1161,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F25A118-AD2C-442C-B603-B94176123865}" name="Catalog" displayName="Catalog" ref="A2:N13" totalsRowShown="0">
-  <autoFilter ref="A2:N13" xr:uid="{B49819C3-6255-47CC-BE48-5CB5517985D4}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F25A118-AD2C-442C-B603-B94176123865}" name="Catalog" displayName="Catalog" ref="A2:M13" totalsRowShown="0">
+  <autoFilter ref="A2:M13" xr:uid="{B49819C3-6255-47CC-BE48-5CB5517985D4}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{61F1C2DB-CDDA-472A-B9E3-AEBC595CE60D}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{2B32E37A-5B05-4A95-8E37-C0525B339B26}" name="Description"/>
     <tableColumn id="14" xr3:uid="{0CA0F2D0-7F29-4627-AC27-4372987CC382}" name="type of Part"/>
@@ -1170,7 +1176,6 @@
     <tableColumn id="7" xr3:uid="{70EBD9FB-3FA8-43A3-BBCD-7E8BFC0193FC}" name="Chemical Finish spec"/>
     <tableColumn id="8" xr3:uid="{33B10821-D1A8-4F46-BA18-2D29791CBE52}" name="Paint Spec"/>
     <tableColumn id="9" xr3:uid="{3E532AEC-4AA9-4F7A-B583-DB093CF27669}" name="MFG Variation"/>
-    <tableColumn id="10" xr3:uid="{29A24B41-1479-401B-9C5D-1FF13E4B91DB}" name="Column1"/>
     <tableColumn id="11" xr3:uid="{3C94297D-D85F-4598-9E5A-90F25B67BAE9}" name="Chemical Finish spec2"/>
     <tableColumn id="12" xr3:uid="{954F3D62-43DD-4806-9F07-75B21B6C3D14}" name="Paint Spec3"/>
     <tableColumn id="13" xr3:uid="{465ADFDE-2DD5-4FB5-A4B3-3904A912ADF7}" name="MFG Variation4"/>
@@ -1533,27 +1538,29 @@
   </sheetPr>
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V2" sqref="A1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="J1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -1561,57 +1568,57 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E3">
         <f>P3</f>
@@ -1630,39 +1637,39 @@
         <v>79.141226091618819</v>
       </c>
       <c r="P3">
-        <f>SUM(P4:P16)</f>
+        <f t="shared" ref="P3:V3" si="0">SUM(P4:P16)</f>
         <v>163.79769537037043</v>
       </c>
       <c r="Q3">
-        <f>SUM(Q4:Q16)</f>
+        <f t="shared" si="0"/>
         <v>97930.036922727668</v>
       </c>
       <c r="R3">
-        <f>SUM(R4:R16)</f>
+        <f t="shared" si="0"/>
         <v>-2762.5152592592622</v>
       </c>
       <c r="S3">
-        <f>SUM(S4:S16)</f>
+        <f t="shared" si="0"/>
         <v>12963.15044259259</v>
       </c>
-      <c r="T3" s="11">
-        <f>SUM(T4:T16)</f>
+      <c r="T3" s="10">
+        <f t="shared" si="0"/>
         <v>163.79769537037043</v>
       </c>
-      <c r="U3" s="11">
-        <f>SUM(U4:U16)</f>
+      <c r="U3" s="10">
+        <f t="shared" si="0"/>
         <v>163.79769537037043</v>
       </c>
-      <c r="V3" s="11">
-        <f>SUM(V4:V16)</f>
+      <c r="V3" s="10">
+        <f t="shared" si="0"/>
         <v>163.79769537037043</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="str">
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="13" t="str">
         <f>'Assy B instance 1'!B3</f>
         <v>Regular assy but at 2 location in the aircraft and each same hardware have different location</v>
       </c>
@@ -1694,35 +1701,35 @@
         <v>58.163185185185213</v>
       </c>
       <c r="Q4">
-        <f>$P4*G4</f>
+        <f t="shared" ref="Q4:S6" si="1">$P4*G4</f>
         <v>38121.835296296296</v>
       </c>
       <c r="R4">
-        <f>$P4*H4</f>
+        <f t="shared" si="1"/>
         <v>-1463.472629629631</v>
       </c>
       <c r="S4">
-        <f>$P4*I4</f>
+        <f t="shared" si="1"/>
         <v>5107.5245962962954</v>
       </c>
       <c r="T4">
-        <f>IF(G4&lt;&gt;"",$P4)</f>
+        <f t="shared" ref="T4:V6" si="2">IF(G4&lt;&gt;"",$P4)</f>
         <v>58.163185185185213</v>
       </c>
       <c r="U4">
-        <f>IF(H4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="2"/>
         <v>58.163185185185213</v>
       </c>
       <c r="V4">
-        <f>IF(I4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="2"/>
         <v>58.163185185185213</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="str">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="13" t="str">
         <f>'Assy B instance 2'!B3</f>
         <v>Regular assy but at 2 location in the aircraft and each same hardware have different location</v>
       </c>
@@ -1754,35 +1761,35 @@
         <v>58.163185185185213</v>
       </c>
       <c r="Q5">
-        <f>$P5*G5</f>
+        <f t="shared" si="1"/>
         <v>36667.755666666664</v>
       </c>
       <c r="R5">
-        <f>$P5*H5</f>
+        <f t="shared" si="1"/>
         <v>-1463.472629629631</v>
       </c>
       <c r="S5">
-        <f>$P5*I5</f>
+        <f t="shared" si="1"/>
         <v>5107.5245962962954</v>
       </c>
       <c r="T5">
-        <f>IF(G5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>58.163185185185213</v>
       </c>
       <c r="U5">
-        <f>IF(H5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>58.163185185185213</v>
       </c>
       <c r="V5">
-        <f>IF(I5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>58.163185185185213</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="str">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13" t="str">
         <f>'Assy C'!B3</f>
         <v>Assy With missing CG on  some hardware
 Detail A is qty 2 but they are not a the same location in that assy</v>
@@ -1815,35 +1822,35 @@
         <v>12.789</v>
       </c>
       <c r="Q6">
-        <f>$P6*G6</f>
+        <f t="shared" si="1"/>
         <v>4065.1672097647061</v>
       </c>
       <c r="R6">
-        <f>$P6*H6</f>
+        <f t="shared" si="1"/>
         <v>164.42999999999998</v>
       </c>
       <c r="S6">
-        <f>$P6*I6</f>
+        <f t="shared" si="1"/>
         <v>1013.985</v>
       </c>
       <c r="T6">
-        <f>IF(G6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>12.789</v>
       </c>
       <c r="U6">
-        <f>IF(H6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>12.789</v>
       </c>
       <c r="V6">
-        <f>IF(I6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>12.789</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="str">
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="13" t="str">
         <f>'Assy D multiple location'!B3</f>
         <v>Assy With missing CG on  all hardware
 and Detail.</v>
@@ -1859,49 +1866,49 @@
         <f>'Assy D multiple location'!E3</f>
         <v>11.560775</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>540</v>
       </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
         <v>50</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P9" si="0">D7*E7</f>
+        <f t="shared" ref="P7:P9" si="3">D7*E7</f>
         <v>11.560775</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q9" si="1">$P7*G7</f>
+        <f t="shared" ref="Q7:Q9" si="4">$P7*G7</f>
         <v>6242.8184999999994</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R9" si="2">$P7*H7</f>
+        <f t="shared" ref="R7:R9" si="5">$P7*H7</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:S9" si="3">$P7*I7</f>
+        <f t="shared" ref="S7:S9" si="6">$P7*I7</f>
         <v>578.03874999999994</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:T9" si="4">IF(G7&lt;&gt;"",$P7)</f>
+        <f t="shared" ref="T7:T9" si="7">IF(G7&lt;&gt;"",$P7)</f>
         <v>11.560775</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U9" si="5">IF(H7&lt;&gt;"",$P7)</f>
+        <f t="shared" ref="U7:U9" si="8">IF(H7&lt;&gt;"",$P7)</f>
         <v>11.560775</v>
       </c>
       <c r="V7">
-        <f t="shared" ref="V7:V9" si="6">IF(I7&lt;&gt;"",$P7)</f>
+        <f t="shared" ref="V7:V9" si="9">IF(I7&lt;&gt;"",$P7)</f>
         <v>11.560775</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="str">
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="13" t="str">
         <f>'Assy D multiple location'!B3</f>
         <v>Assy With missing CG on  all hardware
 and Detail.</v>
@@ -1917,49 +1924,49 @@
         <f>'Assy D multiple location'!E3</f>
         <v>11.560775</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>550</v>
       </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
         <v>50</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.560775</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6358.4262499999995</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>578.03874999999994</v>
       </c>
       <c r="T8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11.560775</v>
       </c>
       <c r="U8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11.560775</v>
       </c>
       <c r="V8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.560775</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="str">
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="13" t="str">
         <f>'Assy D multiple location'!B3</f>
         <v>Assy With missing CG on  all hardware
 and Detail.</v>
@@ -1975,85 +1982,85 @@
         <f>'Assy D multiple location'!E3</f>
         <v>11.560775</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>560</v>
       </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <v>50</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.560775</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6474.0339999999997</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>578.03874999999994</v>
       </c>
       <c r="T9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11.560775</v>
       </c>
       <c r="U9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11.560775</v>
       </c>
       <c r="V9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.560775</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="5"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="5"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="5"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="5"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="5"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="5"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="5"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2165,7 +2172,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection sqref="A1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,16 +2183,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="J1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -2193,57 +2200,57 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E3">
         <f>P3</f>
@@ -2262,36 +2269,36 @@
         <v>87.813701743370771</v>
       </c>
       <c r="P3">
-        <f>SUM(P4:P16)</f>
+        <f t="shared" ref="P3:V3" si="0">SUM(P4:P16)</f>
         <v>58.163185185185213</v>
       </c>
       <c r="Q3">
-        <f>SUM(Q4:Q16)</f>
+        <f t="shared" si="0"/>
         <v>38121.835296296296</v>
       </c>
       <c r="R3">
-        <f>SUM(R4:R16)</f>
+        <f t="shared" si="0"/>
         <v>-1463.472629629631</v>
       </c>
       <c r="S3">
-        <f>SUM(S4:S16)</f>
+        <f t="shared" si="0"/>
         <v>5107.5245962962954</v>
       </c>
-      <c r="T3" s="11">
-        <f>SUM(T4:T16)</f>
+      <c r="T3" s="10">
+        <f t="shared" si="0"/>
         <v>58.163185185185213</v>
       </c>
-      <c r="U3" s="11">
-        <f>SUM(U4:U16)</f>
+      <c r="U3" s="10">
+        <f t="shared" si="0"/>
         <v>58.163185185185213</v>
       </c>
-      <c r="V3" s="11">
-        <f>SUM(V4:V16)</f>
+      <c r="V3" s="10">
+        <f t="shared" si="0"/>
         <v>58.163185185185213</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="str">
@@ -2323,33 +2330,33 @@
         <v>54.040185185185187</v>
       </c>
       <c r="Q4">
-        <f>$P4*G4</f>
+        <f t="shared" ref="Q4:S8" si="1">$P4*G4</f>
         <v>35396.321296296301</v>
       </c>
       <c r="R4">
-        <f>$P4*H4</f>
+        <f t="shared" si="1"/>
         <v>-1351.0046296296298</v>
       </c>
       <c r="S4">
-        <f>$P4*I4</f>
+        <f t="shared" si="1"/>
         <v>4755.5362962962963</v>
       </c>
       <c r="T4">
-        <f>IF(G4&lt;&gt;"",$P4)</f>
+        <f t="shared" ref="T4:V8" si="2">IF(G4&lt;&gt;"",$P4)</f>
         <v>54.040185185185187</v>
       </c>
       <c r="U4">
-        <f>IF(H4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="2"/>
         <v>54.040185185185187</v>
       </c>
       <c r="V4">
-        <f>IF(I4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="2"/>
         <v>54.040185185185187</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>68</v>
+      <c r="A5" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B5" t="str">
         <f>INDEX(Catalog[Description],MATCH(A5,Catalog[Part Number],0))</f>
@@ -2380,33 +2387,33 @@
         <v>0.60600000000000009</v>
       </c>
       <c r="Q5">
-        <f>$P5*G5</f>
+        <f t="shared" si="1"/>
         <v>398.74800000000005</v>
       </c>
       <c r="R5">
-        <f>$P5*H5</f>
+        <f t="shared" si="1"/>
         <v>-16.968000000000004</v>
       </c>
       <c r="S5">
-        <f>$P5*I5</f>
+        <f t="shared" si="1"/>
         <v>53.449200000000012</v>
       </c>
       <c r="T5">
-        <f>IF(G5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0.60600000000000009</v>
       </c>
       <c r="U5">
-        <f>IF(H5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0.60600000000000009</v>
       </c>
       <c r="V5">
-        <f>IF(I5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0.60600000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>69</v>
+      <c r="A6" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B6" t="str">
         <f>INDEX(Catalog[Description],MATCH(A6,Catalog[Part Number],0))</f>
@@ -2437,33 +2444,33 @@
         <v>1.5150000000000001</v>
       </c>
       <c r="Q6">
-        <f>$P6*G6</f>
+        <f t="shared" si="1"/>
         <v>1004.4450000000001</v>
       </c>
       <c r="R6">
-        <f>$P6*H6</f>
+        <f t="shared" si="1"/>
         <v>-45.45</v>
       </c>
       <c r="S6">
-        <f>$P6*I6</f>
+        <f t="shared" si="1"/>
         <v>133.77450000000002</v>
       </c>
       <c r="T6">
-        <f>IF(G6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>1.5150000000000001</v>
       </c>
       <c r="U6">
-        <f>IF(H6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>1.5150000000000001</v>
       </c>
       <c r="V6">
-        <f>IF(I6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>1.5150000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>60</v>
+      <c r="A7" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B7" t="str">
         <f>INDEX(Catalog[Description],MATCH(A7,Catalog[Part Number],0))</f>
@@ -2480,13 +2487,13 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A7,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>656</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>-25</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>82.3</v>
       </c>
       <c r="P7">
@@ -2494,33 +2501,33 @@
         <v>0.20019999999999996</v>
       </c>
       <c r="Q7">
-        <f>$P7*G7</f>
+        <f t="shared" si="1"/>
         <v>131.33119999999997</v>
       </c>
       <c r="R7">
-        <f>$P7*H7</f>
+        <f t="shared" si="1"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S7">
-        <f>$P7*I7</f>
+        <f t="shared" si="1"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T7">
-        <f>IF(G7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U7">
-        <f>IF(H7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V7">
-        <f>IF(I7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>60</v>
+      <c r="A8" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B8" t="str">
         <f>INDEX(Catalog[Description],MATCH(A8,Catalog[Part Number],0))</f>
@@ -2537,13 +2544,13 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A8,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>657</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>-25</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>82.3</v>
       </c>
       <c r="P8">
@@ -2551,33 +2558,33 @@
         <v>0.20019999999999996</v>
       </c>
       <c r="Q8">
-        <f>$P8*G8</f>
+        <f t="shared" si="1"/>
         <v>131.53139999999996</v>
       </c>
       <c r="R8">
-        <f>$P8*H8</f>
+        <f t="shared" si="1"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S8">
-        <f>$P8*I8</f>
+        <f t="shared" si="1"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T8">
-        <f>IF(G8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U8">
-        <f>IF(H8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V8">
-        <f>IF(I8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>60</v>
+      <c r="A9" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B9" t="str">
         <f>INDEX(Catalog[Description],MATCH(A9,Catalog[Part Number],0))</f>
@@ -2594,47 +2601,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A9,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>658</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>-25</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>82.3</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P16" si="0">D9*E9</f>
+        <f t="shared" ref="P9:P16" si="3">D9*E9</f>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:S16" si="1">$P9*G9</f>
+        <f t="shared" ref="Q9:S16" si="4">$P9*G9</f>
         <v>131.73159999999999</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:V16" si="2">IF(G9&lt;&gt;"",$P9)</f>
+        <f t="shared" ref="T9:V16" si="5">IF(G9&lt;&gt;"",$P9)</f>
         <v>0.20019999999999996</v>
       </c>
       <c r="U9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>60</v>
+      <c r="A10" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B10" t="str">
         <f>INDEX(Catalog[Description],MATCH(A10,Catalog[Part Number],0))</f>
@@ -2651,47 +2658,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A10,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>659</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>-25</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>82.3</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>131.93179999999998</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>60</v>
+      <c r="A11" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B11" t="str">
         <f>INDEX(Catalog[Description],MATCH(A11,Catalog[Part Number],0))</f>
@@ -2708,47 +2715,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A11,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>660</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>-25</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>82.3</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>132.13199999999998</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>60</v>
+      <c r="A12" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B12" t="str">
         <f>INDEX(Catalog[Description],MATCH(A12,Catalog[Part Number],0))</f>
@@ -2765,47 +2772,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A12,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>661</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>-25</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>82.3</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>132.33219999999997</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>60</v>
+      <c r="A13" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B13" t="str">
         <f>INDEX(Catalog[Description],MATCH(A13,Catalog[Part Number],0))</f>
@@ -2822,47 +2829,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A13,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>662</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>-25</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>82.3</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>132.53239999999997</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>60</v>
+      <c r="A14" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B14" t="str">
         <f>INDEX(Catalog[Description],MATCH(A14,Catalog[Part Number],0))</f>
@@ -2879,47 +2886,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A14,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>663</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>-25</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>82.3</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>132.73259999999996</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>60</v>
+      <c r="A15" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B15" t="str">
         <f>INDEX(Catalog[Description],MATCH(A15,Catalog[Part Number],0))</f>
@@ -2936,47 +2943,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A15,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>664</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>-25</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>82.3</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>132.93279999999999</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>60</v>
+      <c r="A16" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B16" t="str">
         <f>INDEX(Catalog[Description],MATCH(A16,Catalog[Part Number],0))</f>
@@ -2993,41 +3000,41 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A16,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>665</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>-25</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>82.3</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>133.13299999999998</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
@@ -3048,27 +3055,28 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection sqref="A1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="J1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -3076,57 +3084,57 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E3">
         <f>P3</f>
@@ -3145,36 +3153,36 @@
         <v>87.813701743370771</v>
       </c>
       <c r="P3">
-        <f>SUM(P4:P16)</f>
+        <f t="shared" ref="P3:V3" si="0">SUM(P4:P16)</f>
         <v>58.163185185185213</v>
       </c>
       <c r="Q3">
-        <f>SUM(Q4:Q16)</f>
+        <f t="shared" si="0"/>
         <v>36667.755666666664</v>
       </c>
       <c r="R3">
-        <f>SUM(R4:R16)</f>
+        <f t="shared" si="0"/>
         <v>-1463.472629629631</v>
       </c>
       <c r="S3">
-        <f>SUM(S4:S16)</f>
+        <f t="shared" si="0"/>
         <v>5107.5245962962954</v>
       </c>
-      <c r="T3" s="11">
-        <f>SUM(T4:T16)</f>
+      <c r="T3" s="10">
+        <f t="shared" si="0"/>
         <v>58.163185185185213</v>
       </c>
-      <c r="U3" s="11">
-        <f>SUM(U4:U16)</f>
+      <c r="U3" s="10">
+        <f t="shared" si="0"/>
         <v>58.163185185185213</v>
       </c>
-      <c r="V3" s="11">
-        <f>SUM(V4:V16)</f>
+      <c r="V3" s="10">
+        <f t="shared" si="0"/>
         <v>58.163185185185213</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="str">
@@ -3206,33 +3214,33 @@
         <v>54.040185185185187</v>
       </c>
       <c r="Q4">
-        <f>$P4*G4</f>
+        <f t="shared" ref="Q4:S8" si="1">$P4*G4</f>
         <v>34045.316666666666</v>
       </c>
       <c r="R4">
-        <f>$P4*H4</f>
+        <f t="shared" si="1"/>
         <v>-1351.0046296296298</v>
       </c>
       <c r="S4">
-        <f>$P4*I4</f>
+        <f t="shared" si="1"/>
         <v>4755.5362962962963</v>
       </c>
       <c r="T4">
-        <f>IF(G4&lt;&gt;"",$P4)</f>
+        <f t="shared" ref="T4:V8" si="2">IF(G4&lt;&gt;"",$P4)</f>
         <v>54.040185185185187</v>
       </c>
       <c r="U4">
-        <f>IF(H4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="2"/>
         <v>54.040185185185187</v>
       </c>
       <c r="V4">
-        <f>IF(I4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="2"/>
         <v>54.040185185185187</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>68</v>
+      <c r="A5" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B5" t="str">
         <f>INDEX(Catalog[Description],MATCH(A5,Catalog[Part Number],0))</f>
@@ -3263,33 +3271,33 @@
         <v>0.60600000000000009</v>
       </c>
       <c r="Q5">
-        <f>$P5*G5</f>
+        <f t="shared" si="1"/>
         <v>383.59800000000007</v>
       </c>
       <c r="R5">
-        <f>$P5*H5</f>
+        <f t="shared" si="1"/>
         <v>-16.968000000000004</v>
       </c>
       <c r="S5">
-        <f>$P5*I5</f>
+        <f t="shared" si="1"/>
         <v>53.449200000000012</v>
       </c>
       <c r="T5">
-        <f>IF(G5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0.60600000000000009</v>
       </c>
       <c r="U5">
-        <f>IF(H5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0.60600000000000009</v>
       </c>
       <c r="V5">
-        <f>IF(I5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0.60600000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>69</v>
+      <c r="A6" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B6" t="str">
         <f>INDEX(Catalog[Description],MATCH(A6,Catalog[Part Number],0))</f>
@@ -3320,33 +3328,33 @@
         <v>1.5150000000000001</v>
       </c>
       <c r="Q6">
-        <f>$P6*G6</f>
+        <f t="shared" si="1"/>
         <v>966.57</v>
       </c>
       <c r="R6">
-        <f>$P6*H6</f>
+        <f t="shared" si="1"/>
         <v>-45.45</v>
       </c>
       <c r="S6">
-        <f>$P6*I6</f>
+        <f t="shared" si="1"/>
         <v>133.77450000000002</v>
       </c>
       <c r="T6">
-        <f>IF(G6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>1.5150000000000001</v>
       </c>
       <c r="U6">
-        <f>IF(H6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>1.5150000000000001</v>
       </c>
       <c r="V6">
-        <f>IF(I6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>1.5150000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>60</v>
+      <c r="A7" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B7" t="str">
         <f>INDEX(Catalog[Description],MATCH(A7,Catalog[Part Number],0))</f>
@@ -3363,13 +3371,13 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A7,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>631</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>-25</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>82.3</v>
       </c>
       <c r="P7">
@@ -3377,33 +3385,33 @@
         <v>0.20019999999999996</v>
       </c>
       <c r="Q7">
-        <f>$P7*G7</f>
+        <f t="shared" si="1"/>
         <v>126.32619999999997</v>
       </c>
       <c r="R7">
-        <f>$P7*H7</f>
+        <f t="shared" si="1"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S7">
-        <f>$P7*I7</f>
+        <f t="shared" si="1"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T7">
-        <f>IF(G7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U7">
-        <f>IF(H7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V7">
-        <f>IF(I7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>60</v>
+      <c r="A8" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B8" t="str">
         <f>INDEX(Catalog[Description],MATCH(A8,Catalog[Part Number],0))</f>
@@ -3420,13 +3428,13 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A8,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>632</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>-25</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>82.3</v>
       </c>
       <c r="P8">
@@ -3434,33 +3442,33 @@
         <v>0.20019999999999996</v>
       </c>
       <c r="Q8">
-        <f>$P8*G8</f>
+        <f t="shared" si="1"/>
         <v>126.52639999999998</v>
       </c>
       <c r="R8">
-        <f>$P8*H8</f>
+        <f t="shared" si="1"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S8">
-        <f>$P8*I8</f>
+        <f t="shared" si="1"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T8">
-        <f>IF(G8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U8">
-        <f>IF(H8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V8">
-        <f>IF(I8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="2"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>60</v>
+      <c r="A9" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B9" t="str">
         <f>INDEX(Catalog[Description],MATCH(A9,Catalog[Part Number],0))</f>
@@ -3477,47 +3485,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A9,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>633</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>-25</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>82.3</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P16" si="0">D9*E9</f>
+        <f t="shared" ref="P9:P16" si="3">D9*E9</f>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:Q16" si="1">$P9*G9</f>
+        <f t="shared" ref="Q9:Q16" si="4">$P9*G9</f>
         <v>126.72659999999998</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9:R16" si="2">$P9*H9</f>
+        <f t="shared" ref="R9:R16" si="5">$P9*H9</f>
         <v>-5.004999999999999</v>
       </c>
       <c r="S9">
-        <f t="shared" ref="S9:S16" si="3">$P9*I9</f>
+        <f t="shared" ref="S9:S16" si="6">$P9*I9</f>
         <v>16.476459999999996</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:T16" si="4">IF(G9&lt;&gt;"",$P9)</f>
+        <f t="shared" ref="T9:T16" si="7">IF(G9&lt;&gt;"",$P9)</f>
         <v>0.20019999999999996</v>
       </c>
       <c r="U9">
-        <f t="shared" ref="U9:U16" si="5">IF(H9&lt;&gt;"",$P9)</f>
+        <f t="shared" ref="U9:U16" si="8">IF(H9&lt;&gt;"",$P9)</f>
         <v>0.20019999999999996</v>
       </c>
       <c r="V9">
-        <f t="shared" ref="V9:V16" si="6">IF(I9&lt;&gt;"",$P9)</f>
+        <f t="shared" ref="V9:V16" si="9">IF(I9&lt;&gt;"",$P9)</f>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>60</v>
+      <c r="A10" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B10" t="str">
         <f>INDEX(Catalog[Description],MATCH(A10,Catalog[Part Number],0))</f>
@@ -3534,47 +3542,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A10,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>634</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>-25</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>82.3</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>126.92679999999997</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>60</v>
+      <c r="A11" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B11" t="str">
         <f>INDEX(Catalog[Description],MATCH(A11,Catalog[Part Number],0))</f>
@@ -3591,47 +3599,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A11,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>635</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>-25</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>82.3</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127.12699999999998</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>60</v>
+      <c r="A12" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B12" t="str">
         <f>INDEX(Catalog[Description],MATCH(A12,Catalog[Part Number],0))</f>
@@ -3648,47 +3656,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A12,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>636</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>-25</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>82.3</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127.32719999999998</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>60</v>
+      <c r="A13" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B13" t="str">
         <f>INDEX(Catalog[Description],MATCH(A13,Catalog[Part Number],0))</f>
@@ -3705,47 +3713,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A13,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>637</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>-25</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>82.3</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127.52739999999997</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>60</v>
+      <c r="A14" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B14" t="str">
         <f>INDEX(Catalog[Description],MATCH(A14,Catalog[Part Number],0))</f>
@@ -3762,47 +3770,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A14,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>638</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>-25</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>82.3</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127.72759999999998</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>60</v>
+      <c r="A15" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B15" t="str">
         <f>INDEX(Catalog[Description],MATCH(A15,Catalog[Part Number],0))</f>
@@ -3819,47 +3827,47 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A15,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>639</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>-25</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>82.3</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127.92779999999998</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>60</v>
+      <c r="A16" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B16" t="str">
         <f>INDEX(Catalog[Description],MATCH(A16,Catalog[Part Number],0))</f>
@@ -3876,41 +3884,41 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A16,Catalog[Part Number],0))</f>
         <v>0.20019999999999996</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>640</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>-25</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>82.3</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>128.12799999999999</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-5.004999999999999</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.476459999999996</v>
       </c>
       <c r="T16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="U16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20019999999999996</v>
       </c>
       <c r="V16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20019999999999996</v>
       </c>
     </row>
@@ -3930,8 +3938,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,16 +3955,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="J1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -3964,57 +3972,57 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E3">
         <f>P3</f>
@@ -4048,22 +4056,22 @@
         <f t="shared" si="0"/>
         <v>840.82500000000005</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <f>SUM(T4:T8)</f>
         <v>12.75</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <f t="shared" ref="U3:V3" si="1">SUM(U4:U8)</f>
         <v>10.605</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <f t="shared" si="1"/>
         <v>10.605</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
+      <c r="A4" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B4" t="str">
         <f>INDEX(Catalog[Description],MATCH(A4,Catalog[Part Number],0))</f>
@@ -4094,33 +4102,33 @@
         <v>3.0300000000000002</v>
       </c>
       <c r="Q4">
-        <f>$P4*G4</f>
+        <f t="shared" ref="Q4:S8" si="2">$P4*G4</f>
         <v>939.30000000000007</v>
       </c>
       <c r="R4">
-        <f>$P4*H4</f>
+        <f t="shared" si="2"/>
         <v>-75.75</v>
       </c>
       <c r="S4">
-        <f>$P4*I4</f>
+        <f t="shared" si="2"/>
         <v>227.25000000000003</v>
       </c>
       <c r="T4">
-        <f>IF(G4&lt;&gt;"",$P4)</f>
+        <f t="shared" ref="T4:V8" si="3">IF(G4&lt;&gt;"",$P4)</f>
         <v>3.0300000000000002</v>
       </c>
       <c r="U4">
-        <f>IF(H4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="3"/>
         <v>3.0300000000000002</v>
       </c>
       <c r="V4">
-        <f>IF(I4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="3"/>
         <v>3.0300000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>50</v>
+      <c r="A5" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B5" t="str">
         <f>INDEX(Catalog[Description],MATCH(A5,Catalog[Part Number],0))</f>
@@ -4151,33 +4159,33 @@
         <v>3.0300000000000002</v>
       </c>
       <c r="Q5">
-        <f>$P5*G5</f>
+        <f t="shared" si="2"/>
         <v>954.45</v>
       </c>
       <c r="R5">
-        <f>$P5*H5</f>
+        <f t="shared" si="2"/>
         <v>75.75</v>
       </c>
       <c r="S5">
-        <f>$P5*I5</f>
+        <f t="shared" si="2"/>
         <v>227.25000000000003</v>
       </c>
       <c r="T5">
-        <f>IF(G5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="3"/>
         <v>3.0300000000000002</v>
       </c>
       <c r="U5">
-        <f>IF(H5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="3"/>
         <v>3.0300000000000002</v>
       </c>
       <c r="V5">
-        <f>IF(I5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="3"/>
         <v>3.0300000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>52</v>
+      <c r="A6" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B6" t="str">
         <f>INDEX(Catalog[Description],MATCH(A6,Catalog[Part Number],0))</f>
@@ -4208,33 +4216,33 @@
         <v>4.5449999999999999</v>
       </c>
       <c r="Q6">
-        <f>$P6*G6</f>
+        <f t="shared" si="2"/>
         <v>1477.125</v>
       </c>
       <c r="R6">
-        <f>$P6*H6</f>
+        <f t="shared" si="2"/>
         <v>136.35</v>
       </c>
       <c r="S6">
-        <f>$P6*I6</f>
+        <f t="shared" si="2"/>
         <v>386.32499999999999</v>
       </c>
       <c r="T6">
-        <f>IF(G6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="3"/>
         <v>4.5449999999999999</v>
       </c>
       <c r="U6">
-        <f>IF(H6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="3"/>
         <v>4.5449999999999999</v>
       </c>
       <c r="V6">
-        <f>IF(I6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="3"/>
         <v>4.5449999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>51</v>
+      <c r="A7" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B7" t="str">
         <f>INDEX(Catalog[Description],MATCH(A7,Catalog[Part Number],0))</f>
@@ -4254,40 +4262,40 @@
       <c r="G7">
         <v>317.89999999999998</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="P7">
         <f>D7*E7</f>
         <v>2.145</v>
       </c>
       <c r="Q7">
-        <f>$P7*G7</f>
+        <f t="shared" si="2"/>
         <v>681.89549999999997</v>
       </c>
       <c r="R7">
-        <f>$P7*H7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>$P7*I7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>IF(G7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="3"/>
         <v>2.145</v>
       </c>
       <c r="U7" t="b">
-        <f>IF(H7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" t="b">
-        <f>IF(I7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>63</v>
+      <c r="A8" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B8" t="str">
         <f>INDEX(Catalog[Description],MATCH(A8,Catalog[Part Number],0))</f>
@@ -4304,35 +4312,35 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A8,Catalog[Part Number],0))</f>
         <v>1.9500000000000002E-4</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="P8">
         <f>D8*E8</f>
         <v>3.9000000000000007E-2</v>
       </c>
       <c r="Q8">
-        <f>$P8*G8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>$P8*H8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>$P8*I8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8" t="b">
-        <f>IF(G8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U8" t="b">
-        <f>IF(H8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V8" t="b">
-        <f>IF(I8&lt;&gt;"",$P8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4353,7 +4361,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,16 +4377,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="J1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -4386,57 +4394,57 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E3">
         <f>P3</f>
@@ -4470,22 +4478,22 @@
         <f>SUM(S4:S7)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <f>SUM(T4:T7)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <f t="shared" ref="U3:V3" si="0">SUM(U4:U7)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>75</v>
+      <c r="A4" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B4" t="str">
         <f>INDEX(Catalog[Description],MATCH(A4,Catalog[Part Number],0))</f>
@@ -4507,33 +4515,33 @@
         <v>0.57199999999999995</v>
       </c>
       <c r="Q4">
-        <f>$P4*G4</f>
+        <f t="shared" ref="Q4:S7" si="1">$P4*G4</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>$P4*H4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>$P4*I4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T4" t="b">
-        <f>IF(G4&lt;&gt;"",$P4)</f>
+        <f t="shared" ref="T4:V7" si="2">IF(G4&lt;&gt;"",$P4)</f>
         <v>0</v>
       </c>
       <c r="U4" t="b">
-        <f>IF(H4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V4" t="b">
-        <f>IF(I4&lt;&gt;"",$P4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>52</v>
+      <c r="A5" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B5" t="str">
         <f>INDEX(Catalog[Description],MATCH(A5,Catalog[Part Number],0))</f>
@@ -4555,33 +4563,33 @@
         <v>4.5449999999999999</v>
       </c>
       <c r="Q5">
-        <f>$P5*G5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>$P5*H5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>$P5*I5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" t="b">
-        <f>IF(G5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U5" t="b">
-        <f>IF(H5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5" t="b">
-        <f>IF(I5&lt;&gt;"",$P5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>51</v>
+      <c r="A6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B6" t="str">
         <f>INDEX(Catalog[Description],MATCH(A6,Catalog[Part Number],0))</f>
@@ -4598,41 +4606,41 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A6,Catalog[Part Number],0))</f>
         <v>0.14299999999999999</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="P6">
         <f>D6*E6</f>
         <v>6.4349999999999996</v>
       </c>
       <c r="Q6">
-        <f>$P6*G6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>$P6*H6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>$P6*I6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T6" t="b">
-        <f>IF(G6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U6" t="b">
-        <f>IF(H6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V6" t="b">
-        <f>IF(I6&lt;&gt;"",$P6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>63</v>
+      <c r="A7" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B7" t="str">
         <f>INDEX(Catalog[Description],MATCH(A7,Catalog[Part Number],0))</f>
@@ -4649,35 +4657,35 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A7,Catalog[Part Number],0))</f>
         <v>1.9500000000000002E-4</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="P7">
         <f>D7*E7</f>
         <v>8.7750000000000015E-3</v>
       </c>
       <c r="Q7">
-        <f>$P7*G7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>$P7*H7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>$P7*I7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T7" t="b">
-        <f>IF(G7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" t="b">
-        <f>IF(H7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" t="b">
-        <f>IF(I7&lt;&gt;"",$P7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4695,10 +4703,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4713,25 +4721,24 @@
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4739,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4763,27 +4770,24 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <f>E3*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G3,MaterialSpecTbl[Spécification Number],0))),0)+E3*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H3,ChemicalFinishTbl[Spécification Number],0))),0)+E3*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I3,PaintSpecTbl[Spécification Number],0))),0)+E3*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J3,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4808,28 +4812,28 @@
       <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <f>E3*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H3,ChemicalFinishTbl[Spécification Number],0))),0)</f>
         <v>1.296296296296296E-3</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <f>+E3*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I3,PaintSpecTbl[Spécification Number],0))),0)</f>
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="M3" s="3">
         <f>+E3*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J3,MFGVariationTbl[Type of Variation],0))),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <f>E4*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G4,MaterialSpecTbl[Spécification Number],0))),0)+E4*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H4,ChemicalFinishTbl[Spécification Number],0))),0)+E4*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I4,PaintSpecTbl[Spécification Number],0))),0)+E4*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J4,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4842,15 +4846,15 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <f>E5*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G5,MaterialSpecTbl[Spécification Number],0))),0)+E5*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H5,ChemicalFinishTbl[Spécification Number],0))),0)+E5*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I5,PaintSpecTbl[Spécification Number],0))),0)+E5*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J5,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4863,15 +4867,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <f>E6*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G6,MaterialSpecTbl[Spécification Number],0))),0)+E6*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H6,ChemicalFinishTbl[Spécification Number],0))),0)+E6*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I6,PaintSpecTbl[Spécification Number],0))),0)+E6*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J6,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4884,15 +4888,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <f>E7*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G7,MaterialSpecTbl[Spécification Number],0))),0)+E7*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H7,ChemicalFinishTbl[Spécification Number],0))),0)+E7*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I7,PaintSpecTbl[Spécification Number],0))),0)+E7*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J7,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4905,15 +4909,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <f>E8*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G8,MaterialSpecTbl[Spécification Number],0))),0)+E8*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H8,ChemicalFinishTbl[Spécification Number],0))),0)+E8*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I8,PaintSpecTbl[Spécification Number],0))),0)+E8*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J8,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4926,15 +4930,15 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <f>E9*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G9,MaterialSpecTbl[Spécification Number],0))),0)+E9*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H9,ChemicalFinishTbl[Spécification Number],0))),0)+E9*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I9,PaintSpecTbl[Spécification Number],0))),0)+E9*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J9,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4947,15 +4951,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <f>E10*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G10,MaterialSpecTbl[Spécification Number],0))),0)+E10*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H10,ChemicalFinishTbl[Spécification Number],0))),0)+E10*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I10,PaintSpecTbl[Spécification Number],0))),0)+E10*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J10,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4968,15 +4972,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <f>E11*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G11,MaterialSpecTbl[Spécification Number],0))),0)+E11*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H11,ChemicalFinishTbl[Spécification Number],0))),0)+E11*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I11,PaintSpecTbl[Spécification Number],0))),0)+E11*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J11,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -4989,15 +4993,15 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <f>E12*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G12,MaterialSpecTbl[Spécification Number],0))),0)+E12*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H12,ChemicalFinishTbl[Spécification Number],0))),0)+E12*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I12,PaintSpecTbl[Spécification Number],0))),0)+E12*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J12,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -5010,15 +5014,15 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <f>E13*IFERROR((INDEX(MaterialSpecTbl[Density],MATCH(G13,MaterialSpecTbl[Spécification Number],0))),0)+E13*IFERROR((INDEX(ChemicalFinishTbl[Density],MATCH(H13,ChemicalFinishTbl[Spécification Number],0))),0)+E13*IFERROR((INDEX(PaintSpecTbl[Density],MATCH(I13,PaintSpecTbl[Spécification Number],0))),0)+E13*IFERROR((INDEX(MFGVariationTbl[Density],MATCH(J13,MFGVariationTbl[Type of Variation],0))),0)</f>
@@ -5033,7 +5037,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOM some cg calculation scenario - preliminary requirement for weight accounting database.xlsx
+++ b/BOM some cg calculation scenario - preliminary requirement for weight accounting database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74fa2a0f314604bb/7jtfCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{87B73751-D069-4126-8478-8CF77432F7F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CFB897BB-7E5D-4898-B3AC-DC14DB8030B9}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{87B73751-D069-4126-8478-8CF77432F7F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F8C583E3-48B9-4C8D-877A-C1A2F9B333BF}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{41E4C366-794D-41B4-BD70-006AF0BA3188}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{41E4C366-794D-41B4-BD70-006AF0BA3188}"/>
   </bookViews>
   <sheets>
     <sheet name="Assy A" sheetId="9" r:id="rId1"/>
@@ -568,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{91E12209-1D6B-4252-8939-AC052D06C41C}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{0629F31E-D775-4EBB-9E74-15C13AFB97AD}">
       <text>
         <r>
           <rPr>
@@ -578,21 +578,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jean-Marc Flamand:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{CB24ACFE-61C2-4E60-9E5C-210238ADF7EE}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{DE53C829-0470-4590-A7CF-386EBF5E0E43}">
       <text>
         <r>
           <rPr>
@@ -602,21 +593,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jean-Marc Flamand:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{1E3081D7-032D-4FCA-951F-284889B388DB}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{55BD38A7-F532-4C5C-927A-EFB1C79D9C4B}">
       <text>
         <r>
           <rPr>
@@ -626,21 +608,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jean-Marc Flamand:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{BBEAE480-2615-4D7A-A48D-427007EA68C6}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{64F9A58D-F5AE-49DF-8237-A3A20DA79A7D}">
       <text>
         <r>
           <rPr>
@@ -650,21 +623,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jean-Marc Flamand:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{16411B67-DD16-40E8-B296-E5590799250E}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{BE524BFF-D6F0-440D-99E9-E695621F3F5D}">
       <text>
         <r>
           <rPr>
@@ -674,21 +638,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jean-Marc Flamand:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{4029628F-9156-47AB-B8F0-FA9113A83C7C}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{7C10A07E-DF76-4471-AA74-04518933DE9F}">
       <text>
         <r>
           <rPr>
@@ -698,17 +653,98 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jean-Marc Flamand:</t>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{65F37DFF-CF70-448E-9E0A-94E1F7806A7C}">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{87DCAF33-28EF-4A9B-B399-2451DC3F8AFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{055B98FE-2E8D-4DEE-8588-39B38303DB6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{87860C9E-E676-4E7E-89E1-B008BFA3712C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{5061F856-306B-48F0-A7F5-22497B80D30D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{DD4EDD60-A70C-454E-A488-0CDAFD34C7A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jean-Marc Flamand:
+Left Blank intentionnaly</t>
         </r>
       </text>
     </comment>
@@ -1123,10 +1159,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1538,7 +1574,7 @@
   </sheetPr>
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="A1:W2"/>
     </sheetView>
   </sheetViews>
@@ -1551,14 +1587,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
       <c r="P1" t="s">
         <v>75</v>
       </c>
@@ -1669,7 +1705,7 @@
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="12" t="str">
         <f>'Assy B instance 1'!B3</f>
         <v>Regular assy but at 2 location in the aircraft and each same hardware have different location</v>
       </c>
@@ -1729,7 +1765,7 @@
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="12" t="str">
         <f>'Assy B instance 2'!B3</f>
         <v>Regular assy but at 2 location in the aircraft and each same hardware have different location</v>
       </c>
@@ -1789,7 +1825,7 @@
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="12" t="str">
         <f>'Assy C'!B3</f>
         <v>Assy With missing CG on  some hardware
 Detail A is qty 2 but they are not a the same location in that assy</v>
@@ -1850,7 +1886,7 @@
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="12" t="str">
         <f>'Assy D multiple location'!B3</f>
         <v>Assy With missing CG on  all hardware
 and Detail.</v>
@@ -1908,7 +1944,7 @@
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B8" s="12" t="str">
         <f>'Assy D multiple location'!B3</f>
         <v>Assy With missing CG on  all hardware
 and Detail.</v>
@@ -1966,7 +2002,7 @@
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="12" t="str">
         <f>'Assy D multiple location'!B3</f>
         <v>Assy With missing CG on  all hardware
 and Detail.</v>
@@ -2171,8 +2207,8 @@
   </sheetPr>
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,14 +2219,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
       <c r="P1" t="s">
         <v>75</v>
       </c>
@@ -2269,15 +2305,15 @@
         <v>87.813701743370771</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:V3" si="0">SUM(P4:P16)</f>
+        <f>SUM(P4:P16)</f>
         <v>58.163185185185213</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
+        <f>SUM(Q4:Q16)</f>
         <v>38121.835296296296</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P3:V3" si="0">SUM(R4:R16)</f>
         <v>-1463.472629629631</v>
       </c>
       <c r="S3">
@@ -2285,7 +2321,7 @@
         <v>5107.5245962962954</v>
       </c>
       <c r="T3" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(T4:T16)</f>
         <v>58.163185185185213</v>
       </c>
       <c r="U3" s="10">
@@ -2342,11 +2378,11 @@
         <v>4755.5362962962963</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:V8" si="2">IF(G4&lt;&gt;"",$P4)</f>
+        <f>IF(G4&lt;&gt;"",$P4)</f>
         <v>54.040185185185187</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T4:V8" si="2">IF(H4&lt;&gt;"",$P4)</f>
         <v>54.040185185185187</v>
       </c>
       <c r="V4">
@@ -3055,7 +3091,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,14 +3103,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
       <c r="P1" t="s">
         <v>75</v>
       </c>
@@ -3939,7 +3975,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,14 +3991,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
       <c r="P1" t="s">
         <v>75</v>
       </c>
@@ -4360,8 +4396,8 @@
   </sheetPr>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,14 +4413,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
       <c r="P1" t="s">
         <v>75</v>
       </c>
@@ -4510,6 +4546,9 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A4,Catalog[Part Number],0))</f>
         <v>0.57199999999999995</v>
       </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="P4">
         <f>D4*E4</f>
         <v>0.57199999999999995</v>
@@ -4527,15 +4566,15 @@
         <v>0</v>
       </c>
       <c r="T4" t="b">
-        <f t="shared" ref="T4:V7" si="2">IF(G4&lt;&gt;"",$P4)</f>
+        <f>IF(G4&lt;&gt;"",$P4)</f>
         <v>0</v>
       </c>
       <c r="U4" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(H4&lt;&gt;"",$P4)</f>
         <v>0</v>
       </c>
       <c r="V4" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T4:V7" si="2">IF(I4&lt;&gt;"",$P4)</f>
         <v>0</v>
       </c>
     </row>
@@ -4558,6 +4597,9 @@
         <f>INDEX(Catalog[Unit Weight Calculated],MATCH(A5,Catalog[Part Number],0))</f>
         <v>4.5449999999999999</v>
       </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="P5">
         <f>D5*E5</f>
         <v>4.5449999999999999</v>
